--- a/biology/Botanique/Cordyceps/Cordyceps.xlsx
+++ b/biology/Botanique/Cordyceps/Cordyceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cordyceps[3] est un genre de champignons entomopathogènes (qui infecte des insectes ou des araignées[4],[5],[6]) ascomycètes de la famille des Cordycipitaceae. Il peut aussi parasiter d'autres champignons.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordyceps est un genre de champignons entomopathogènes (qui infecte des insectes ou des araignées) ascomycètes de la famille des Cordycipitaceae. Il peut aussi parasiter d'autres champignons.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les Pyrénomycètes de l'ancienne classification, à présent recentrés chez les Sordariomycetes, on trouve l'ordre des Clavicipitales dont les espèces possèdent des asques longs et très étroits, à paroi mince et sommet épaissi. La famille des Clavicipitaceae comprend 23 genres et plus de 200 espèces.
-Cordyceps s.s.: Fr. 1818 emend Sung et al. 2007[7] :
+Cordyceps s.s.: Fr. 1818 emend Sung et al. 2007 :
 Ce sont des espèces pâles ou très colorées, qui produisent des stromas de consistance molle, masse mycélienne formant des endosclérotes[N 1] à l'intérieur des insectes avec un feutrage partiel à la surface de l'hôte, infectant les larves ou les pupes de Coléoptères et de Lépidoptères, dans la litière de feuilles ou de mousse, parfois aussi en terre nue.
 Stroma unique ou cespiteux, charnu, fibrilleux, ou rarement marasmioïde ; tige simple ou ramifiée, filiforme, cylindracée, clavée, avec ou sans couche péridiale ; partie fertile apicale ou latérale. Couche péridiale pseudo-parenchymateuse, hyphale ou palissadique, poilue ou glabre.
 Le périthèce est superficiel, immergé ou semi-immergé, vertical ou oblique. Les asques, allongées, cylindriques à sommet hémisphérique ou allongée contenant quatre ou huit spores. Ascospores hyalines, longuement cylindriques ou fusiformes, septées, donnant des spores secondaires, sauf rares exceptions.
@@ -523,8 +537,8 @@
 La présence de Cordyceps peut révéler la présence de « fausses-truffes » du genre Elaphomyces (Elaphomyces granulatus en particulier). Ce sont les Elaphocordyceps et les Metacordyceps qui sont endémiques à l’Est de l’Asie.
 Le type du genre est Cordyceps militaris (L.) Fr.
 Nombreux stades imparfaits (anamorphes): Isaria, Hirsutella, Hymenostilbe, etc.
-L'analyse biomoléculaire[7] a séparé le genre Ophiocordyceps Petch 1931 emend Sung et al. 2007. Le plus grand groupe de champignons parasites des Arthropodes, surtout sur hôtes enterrés ou sur des débris ligneux en décomposition. Stroma et subiculum sombre rarement coloré, fibreux, tenace à flexible, rarement charnu. Périthèces groupés en coussinets au sommet ou latéralement, superficiels ou complètement immergés, généralement disposés perpendiculairement ou obliquement. Asques hyalins cylindriques, plutôt épaissis au sommet, rarement fusoïdes à ellipsoïdes. Ascospores cylindriques, multiseptés, désarticulés ou non en parties sporales.
-le champignon débutant la pandémie dans le jeu vidéo :"the last of us[8]"
+L'analyse biomoléculaire a séparé le genre Ophiocordyceps Petch 1931 emend Sung et al. 2007. Le plus grand groupe de champignons parasites des Arthropodes, surtout sur hôtes enterrés ou sur des débris ligneux en décomposition. Stroma et subiculum sombre rarement coloré, fibreux, tenace à flexible, rarement charnu. Périthèces groupés en coussinets au sommet ou latéralement, superficiels ou complètement immergés, généralement disposés perpendiculairement ou obliquement. Asques hyalins cylindriques, plutôt épaissis au sommet, rarement fusoïdes à ellipsoïdes. Ascospores cylindriques, multiseptés, désarticulés ou non en parties sporales.
+le champignon débutant la pandémie dans le jeu vidéo :"the last of us"
 </t>
         </is>
       </c>
@@ -553,9 +567,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Tête de nœud » ou « tête en massue », du grec κορδύλη (cordylê) : bosse, enflure, nœud, et du latin ceps qui signifie tête. Mais Cordyceps pourrait également vouloir dire « tête de têtard », cordylos = têtard[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Tête de nœud » ou « tête en massue », du grec κορδύλη (cordylê) : bosse, enflure, nœud, et du latin ceps qui signifie tête. Mais Cordyceps pourrait également vouloir dire « tête de têtard », cordylos = têtard.
 Le nom sino-japonais tōchūkasō (冬虫夏草) signifie littéralement « insecte l'hiver, herbe en été ».
 </t>
         </is>
@@ -585,15 +601,17 @@
           <t>Historique du taxon Cordyceps</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers microscopes ne permettant pas de distinguer la vraie nature des Ascomes, Carl Linnæus[10], suivant Vaillant, place les Cordyceps dans les Clavaria et Persoon[11] dans les Sphaeria. Ce dernier genre couvre à l'époque plusieurs genres des actuels Hypochreales et Spheriales.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers microscopes ne permettant pas de distinguer la vraie nature des Ascomes, Carl Linnæus, suivant Vaillant, place les Cordyceps dans les Clavaria et Persoon dans les Sphaeria. Ce dernier genre couvre à l'époque plusieurs genres des actuels Hypochreales et Spheriales.
 Vingt-deux ans plus tard, Fries démantèle ce genre Sphaeria en plusieurs sections, dont l'une nommée Cordyceps, pour accueillir les ascomycètes à fructifications charnues, dressées comme le sont les Cordyceps actuels, ainsi que Sphaeria alutacea, à présent assigné à une espèce de Podocrea.
-Il faudra attendre les travaux de Tulasne[12], pour que le genre Cordyceps reçoive une définition à peu près semblable à la conception actuelle, bien que le nom de Torrubia qu'il propose pour ce dernier soit invalide. Trois genres sont considérés les plus proches des Cordyceps, tous porteurs d'ascospores filamenteux :
+Il faudra attendre les travaux de Tulasne, pour que le genre Cordyceps reçoive une définition à peu près semblable à la conception actuelle, bien que le nom de Torrubia qu'il propose pour ce dernier soit invalide. Trois genres sont considérés les plus proches des Cordyceps, tous porteurs d'ascospores filamenteux :
 Torrubiella forme un endosclérote dans le corps des insectes, et le subiculum à l'extérieur
 Claviceps forme un exosclérote portant le stroma sur les inflorescences des graminées et carex.
 Balansia forme un pseudosclérote (formé de cellules de l'hôte et d'hyphes fongiques) sur les tiges et inflorescences de graminées.
-Les Cordyceps forment un endosclérote produisant un stroma à l'intérieur des insectes, les fructifications d'Elaphomyces et le sclérote de Claviceps[13].
+Les Cordyceps forment un endosclérote produisant un stroma à l'intérieur des insectes, les fructifications d'Elaphomyces et le sclérote de Claviceps.
 </t>
         </is>
       </c>
@@ -622,7 +640,9 @@
           <t>Espèces remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cordyceps militaris
 Cordyceps bassiana
@@ -656,9 +676,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (30 octobre 2018)[14] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (30 octobre 2018) :
 Cordyceps adpropinquans (Ces.) Sacc. 1883
 Cordyceps aeruginosclerota Z.Q. Liang &amp; A.Y. Liu 1997
 Cordyceps agriotidis Kawam. 1955
